--- a/실태조사 결과 정리자료_표출정보_큐버솔루션.xlsx
+++ b/실태조사 결과 정리자료_표출정보_큐버솔루션.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.202\Cuber2_Synology\01 수행중\02 일반용역\14 HNS 해양환경 영향평가 상시운영플랫폼 설계 용역_220207\02 연구진행\16 KRISI DB 표출방안_220921\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hns\WindowsFormsApp2\WindowsFormsApp2\bin\x64\Debug\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7FFA7F-66D2-42ED-912F-09FF917CBD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요_원본" sheetId="7" r:id="rId1"/>
-    <sheet name="개요DB" sheetId="13" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="13" r:id="rId2"/>
     <sheet name="표출 1. HNS 실태조사 정보 개요" sheetId="15" r:id="rId3"/>
     <sheet name="표출 2. 기초환경자료" sheetId="14" r:id="rId4"/>
     <sheet name="표출 3. 수질오염물질" sheetId="16" r:id="rId5"/>
@@ -58,12 +57,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hoon Choi</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B36F59B0-1AEF-4851-BD1F-4323EDB71B75}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{2E7ADE41-A72E-4E0E-A5D3-9BA492A49108}">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{009BB77D-2975-4BE8-9477-F3355D102392}">
+    <comment ref="A38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{8765893E-CD54-4186-99D4-26E720EA5AC3}">
+    <comment ref="A39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,12 +167,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hoon Choi</author>
   </authors>
   <commentList>
-    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="P13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,12 +251,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hoon Choi</author>
   </authors>
   <commentList>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,12 +311,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hoon Choi</author>
   </authors>
   <commentList>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,12 +371,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hoon Choi</author>
   </authors>
   <commentList>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="C50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2685,7 +2684,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
@@ -4413,15 +4412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4430,6 +4420,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5355,6 +5354,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5362,7 +5362,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5631,6 +5630,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5638,7 +5638,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5931,6 +5930,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5938,7 +5938,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6190,6 +6189,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6197,7 +6197,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6449,6 +6448,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6456,7 +6456,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6749,6 +6748,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6756,7 +6756,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7038,6 +7037,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7045,7 +7045,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7327,6 +7326,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7334,7 +7334,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7616,6 +7615,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7623,7 +7623,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10641,6 +10640,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10648,7 +10648,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -16920,7 +16919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
@@ -17502,7 +17501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -17560,10 +17559,10 @@
       <c r="B2" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="213" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="213" t="s">
+      <c r="D2" s="210" t="s">
         <v>274</v>
       </c>
       <c r="E2" s="162">
@@ -17589,8 +17588,8 @@
       <c r="B3" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="211"/>
       <c r="E3" s="162">
         <v>35.068600000000004</v>
       </c>
@@ -17614,10 +17613,10 @@
       <c r="B4" s="152" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="213" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="210" t="s">
+      <c r="D4" s="213" t="s">
         <v>268</v>
       </c>
       <c r="E4" s="162">
@@ -17644,8 +17643,8 @@
       <c r="B5" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
       <c r="E5" s="162">
         <v>35.083133333333336</v>
       </c>
@@ -17727,10 +17726,10 @@
       <c r="B8" s="152" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="210" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="213" t="s">
+      <c r="D8" s="210" t="s">
         <v>569</v>
       </c>
       <c r="E8" s="82">
@@ -17756,8 +17755,8 @@
       <c r="B9" s="152" t="s">
         <v>546</v>
       </c>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
       <c r="E9" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17781,8 +17780,8 @@
       <c r="B10" s="152" t="s">
         <v>547</v>
       </c>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
       <c r="E10" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17806,8 +17805,8 @@
       <c r="B11" s="152" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="214"/>
-      <c r="D11" s="214"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
       <c r="E11" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17831,8 +17830,8 @@
       <c r="B12" s="152" t="s">
         <v>549</v>
       </c>
-      <c r="C12" s="214"/>
-      <c r="D12" s="214"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
       <c r="E12" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17856,8 +17855,8 @@
       <c r="B13" s="152" t="s">
         <v>550</v>
       </c>
-      <c r="C13" s="215"/>
-      <c r="D13" s="215"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="212"/>
       <c r="E13" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17881,10 +17880,10 @@
       <c r="B14" s="152" t="s">
         <v>561</v>
       </c>
-      <c r="C14" s="213" t="s">
+      <c r="C14" s="210" t="s">
         <v>568</v>
       </c>
-      <c r="D14" s="213" t="s">
+      <c r="D14" s="210" t="s">
         <v>570</v>
       </c>
       <c r="E14" s="82">
@@ -17910,8 +17909,8 @@
       <c r="B15" s="152" t="s">
         <v>551</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
       <c r="E15" s="82">
         <v>34.838833333333334</v>
       </c>
@@ -17935,8 +17934,8 @@
       <c r="B16" s="152" t="s">
         <v>552</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
       <c r="E16" s="82">
         <v>34.838833333333334</v>
       </c>
@@ -17960,8 +17959,8 @@
       <c r="B17" s="152" t="s">
         <v>553</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="214"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="211"/>
       <c r="E17" s="82">
         <v>34.838833333333334</v>
       </c>
@@ -18339,10 +18338,10 @@
       <c r="B30" s="152" t="s">
         <v>540</v>
       </c>
-      <c r="C30" s="210" t="s">
+      <c r="C30" s="213" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="213" t="s">
+      <c r="D30" s="210" t="s">
         <v>294</v>
       </c>
       <c r="E30" s="82">
@@ -18368,8 +18367,8 @@
       <c r="B31" s="152" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="212"/>
-      <c r="D31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="82">
         <v>35.44466666666667</v>
       </c>
@@ -18393,10 +18392,10 @@
       <c r="B32" s="152" t="s">
         <v>567</v>
       </c>
-      <c r="C32" s="210" t="s">
+      <c r="C32" s="213" t="s">
         <v>297</v>
       </c>
-      <c r="D32" s="213" t="s">
+      <c r="D32" s="210" t="s">
         <v>298</v>
       </c>
       <c r="E32" s="82">
@@ -18422,8 +18421,8 @@
       <c r="B33" s="152" t="s">
         <v>554</v>
       </c>
-      <c r="C33" s="212"/>
-      <c r="D33" s="214"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="211"/>
       <c r="E33" s="82">
         <v>35.447666666666663</v>
       </c>
@@ -18447,10 +18446,10 @@
       <c r="B34" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C34" s="210" t="s">
+      <c r="C34" s="213" t="s">
         <v>299</v>
       </c>
-      <c r="D34" s="213" t="s">
+      <c r="D34" s="210" t="s">
         <v>300</v>
       </c>
       <c r="E34" s="82">
@@ -18476,8 +18475,8 @@
       <c r="B35" s="152" t="s">
         <v>533</v>
       </c>
-      <c r="C35" s="211"/>
-      <c r="D35" s="214"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="211"/>
       <c r="E35" s="82">
         <v>35.480833333333337</v>
       </c>
@@ -18501,8 +18500,8 @@
       <c r="B36" s="152" t="s">
         <v>534</v>
       </c>
-      <c r="C36" s="212"/>
-      <c r="D36" s="214"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="211"/>
       <c r="E36" s="82">
         <v>35.480833333333337</v>
       </c>
@@ -18526,10 +18525,10 @@
       <c r="B37" s="152" t="s">
         <v>535</v>
       </c>
-      <c r="C37" s="210" t="s">
+      <c r="C37" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="213" t="s">
+      <c r="D37" s="210" t="s">
         <v>302</v>
       </c>
       <c r="E37" s="82">
@@ -18555,8 +18554,8 @@
       <c r="B38" s="152" t="s">
         <v>536</v>
       </c>
-      <c r="C38" s="212"/>
-      <c r="D38" s="214"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="211"/>
       <c r="E38" s="82">
         <v>35.499499999999998</v>
       </c>
@@ -18691,6 +18690,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C8:C13"/>
@@ -18699,14 +18706,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18715,7 +18714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -26916,7 +26915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -28501,7 +28500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -30115,7 +30114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -30611,7 +30610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -38131,7 +38130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -39773,11 +39772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66037F93-424B-404F-9C11-BE1EE32A1779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40087,7 +40086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1CFA12-F9C5-48A3-9B47-07FA611DB1B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40113,7 +40112,7 @@
         <v>624</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(B1,개요DB!$B$4:$C$13,2,FALSE)</f>
+        <f>VLOOKUP(B1,sheet1!$B$4:$C$13,2,FALSE)</f>
         <v>해양산업시설</v>
       </c>
     </row>
@@ -40127,7 +40126,7 @@
         <v>626</v>
       </c>
       <c r="B5">
-        <f>VLOOKUP(B1,개요DB!$B$4:$H$13,3,FALSE)</f>
+        <f>VLOOKUP(B1,sheet1!$B$4:$H$13,3,FALSE)</f>
         <v>21</v>
       </c>
     </row>
@@ -40136,7 +40135,7 @@
         <v>628</v>
       </c>
       <c r="B6">
-        <f>VLOOKUP(B1,개요DB!$B$4:$H$13,4,FALSE)</f>
+        <f>VLOOKUP(B1,sheet1!$B$4:$H$13,4,FALSE)</f>
         <v>19</v>
       </c>
     </row>
@@ -40145,7 +40144,7 @@
         <v>627</v>
       </c>
       <c r="B7">
-        <f>VLOOKUP(B1,개요DB!$B$4:$H$13,5,FALSE)</f>
+        <f>VLOOKUP(B1,sheet1!$B$4:$H$13,5,FALSE)</f>
         <v>13</v>
       </c>
     </row>
@@ -40159,7 +40158,7 @@
         <v>631</v>
       </c>
       <c r="B10">
-        <f>VLOOKUP(B1,개요DB!$B$4:$H$13,6,FALSE)</f>
+        <f>VLOOKUP(B1,sheet1!$B$4:$H$13,6,FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -40168,7 +40167,7 @@
         <v>630</v>
       </c>
       <c r="B11">
-        <f>VLOOKUP(B1,개요DB!$B$4:$H$13,7,FALSE)</f>
+        <f>VLOOKUP(B1,sheet1!$B$4:$H$13,7,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -40208,9 +40207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B0D6B78-9245-4980-B81B-A24FF54FACDE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>개요DB!$B$4:$B$13</xm:f>
+            <xm:f>sheet1!$B$4:$B$13</xm:f>
           </x14:formula1>
           <xm:sqref>B1</xm:sqref>
         </x14:dataValidation>
@@ -40221,7 +40220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545C5DFF-0769-4AF1-B5EE-8517740CA57A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40709,7 +40708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF19D438-F2E9-48DD-9F01-3EB05F621935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -41446,7 +41445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5A08A7-DFB4-44A6-9C97-12CDC60F9B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K121"/>
   <sheetViews>
     <sheetView topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -44891,7 +44890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDBC0B4-2CF9-4072-A6D0-76CAAE9D8684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -46124,10 +46123,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDBBC15-DCAB-4CCC-8E99-732E9FB9E1E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
@@ -46413,7 +46412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>

--- a/실태조사 결과 정리자료_표출정보_큐버솔루션.xlsx
+++ b/실태조사 결과 정리자료_표출정보_큐버솔루션.xlsx
@@ -36,7 +36,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'산업시설배출수 위경도'!$A$1:$D$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'주변해역 위경도'!$A$1:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4412,6 +4412,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4420,15 +4429,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17559,10 +17559,10 @@
       <c r="B2" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="210" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="213" t="s">
         <v>274</v>
       </c>
       <c r="E2" s="162">
@@ -17588,8 +17588,8 @@
       <c r="B3" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="214"/>
       <c r="E3" s="162">
         <v>35.068600000000004</v>
       </c>
@@ -17613,10 +17613,10 @@
       <c r="B4" s="152" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="210" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="210" t="s">
         <v>268</v>
       </c>
       <c r="E4" s="162">
@@ -17643,8 +17643,8 @@
       <c r="B5" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
       <c r="E5" s="162">
         <v>35.083133333333336</v>
       </c>
@@ -17726,10 +17726,10 @@
       <c r="B8" s="152" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="210" t="s">
+      <c r="C8" s="213" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="210" t="s">
+      <c r="D8" s="213" t="s">
         <v>569</v>
       </c>
       <c r="E8" s="82">
@@ -17755,8 +17755,8 @@
       <c r="B9" s="152" t="s">
         <v>546</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
       <c r="E9" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17780,8 +17780,8 @@
       <c r="B10" s="152" t="s">
         <v>547</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17805,8 +17805,8 @@
       <c r="B11" s="152" t="s">
         <v>548</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
       <c r="E11" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17830,8 +17830,8 @@
       <c r="B12" s="152" t="s">
         <v>549</v>
       </c>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
       <c r="E12" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17855,8 +17855,8 @@
       <c r="B13" s="152" t="s">
         <v>550</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
       <c r="E13" s="82">
         <v>34.817999999999998</v>
       </c>
@@ -17880,10 +17880,10 @@
       <c r="B14" s="152" t="s">
         <v>561</v>
       </c>
-      <c r="C14" s="210" t="s">
+      <c r="C14" s="213" t="s">
         <v>568</v>
       </c>
-      <c r="D14" s="210" t="s">
+      <c r="D14" s="213" t="s">
         <v>570</v>
       </c>
       <c r="E14" s="82">
@@ -17909,8 +17909,8 @@
       <c r="B15" s="152" t="s">
         <v>551</v>
       </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="82">
         <v>34.838833333333334</v>
       </c>
@@ -17934,8 +17934,8 @@
       <c r="B16" s="152" t="s">
         <v>552</v>
       </c>
-      <c r="C16" s="211"/>
-      <c r="D16" s="211"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="82">
         <v>34.838833333333334</v>
       </c>
@@ -17959,8 +17959,8 @@
       <c r="B17" s="152" t="s">
         <v>553</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="211"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="82">
         <v>34.838833333333334</v>
       </c>
@@ -18338,10 +18338,10 @@
       <c r="B30" s="152" t="s">
         <v>540</v>
       </c>
-      <c r="C30" s="213" t="s">
+      <c r="C30" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="210" t="s">
+      <c r="D30" s="213" t="s">
         <v>294</v>
       </c>
       <c r="E30" s="82">
@@ -18367,8 +18367,8 @@
       <c r="B31" s="152" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="214"/>
-      <c r="D31" s="211"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="214"/>
       <c r="E31" s="82">
         <v>35.44466666666667</v>
       </c>
@@ -18392,10 +18392,10 @@
       <c r="B32" s="152" t="s">
         <v>567</v>
       </c>
-      <c r="C32" s="213" t="s">
+      <c r="C32" s="210" t="s">
         <v>297</v>
       </c>
-      <c r="D32" s="210" t="s">
+      <c r="D32" s="213" t="s">
         <v>298</v>
       </c>
       <c r="E32" s="82">
@@ -18421,8 +18421,8 @@
       <c r="B33" s="152" t="s">
         <v>554</v>
       </c>
-      <c r="C33" s="214"/>
-      <c r="D33" s="211"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="214"/>
       <c r="E33" s="82">
         <v>35.447666666666663</v>
       </c>
@@ -18446,10 +18446,10 @@
       <c r="B34" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C34" s="213" t="s">
+      <c r="C34" s="210" t="s">
         <v>299</v>
       </c>
-      <c r="D34" s="210" t="s">
+      <c r="D34" s="213" t="s">
         <v>300</v>
       </c>
       <c r="E34" s="82">
@@ -18475,8 +18475,8 @@
       <c r="B35" s="152" t="s">
         <v>533</v>
       </c>
-      <c r="C35" s="215"/>
-      <c r="D35" s="211"/>
+      <c r="C35" s="211"/>
+      <c r="D35" s="214"/>
       <c r="E35" s="82">
         <v>35.480833333333337</v>
       </c>
@@ -18500,8 +18500,8 @@
       <c r="B36" s="152" t="s">
         <v>534</v>
       </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="214"/>
       <c r="E36" s="82">
         <v>35.480833333333337</v>
       </c>
@@ -18525,10 +18525,10 @@
       <c r="B37" s="152" t="s">
         <v>535</v>
       </c>
-      <c r="C37" s="213" t="s">
+      <c r="C37" s="210" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="210" t="s">
+      <c r="D37" s="213" t="s">
         <v>302</v>
       </c>
       <c r="E37" s="82">
@@ -18554,8 +18554,8 @@
       <c r="B38" s="152" t="s">
         <v>536</v>
       </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="211"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="214"/>
       <c r="E38" s="82">
         <v>35.499499999999998</v>
       </c>
@@ -18690,6 +18690,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -18698,14 +18706,6 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26922,7 +26922,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -26986,10 +26986,10 @@
         <v>305</v>
       </c>
       <c r="E2" s="166">
-        <v>35.054433333333336</v>
+        <v>35.0544333333333</v>
       </c>
       <c r="F2" s="166">
-        <v>128.97533333333334</v>
+        <v>128.975333333333</v>
       </c>
       <c r="G2" s="165" t="s">
         <v>594</v>
@@ -39776,7 +39776,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -46418,7 +46418,7 @@
   </sheetPr>
   <dimension ref="A1:AV110"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A73" sqref="A73:I75"/>
     </sheetView>
   </sheetViews>
